--- a/Horizontal_Format (1).xlsx
+++ b/Horizontal_Format (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariam Hassanein\OneDrive - Faculty Of Computer and Information Technology (Ain Shams University)\FCIS\Year2023-2024\DataMining\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{E388CFEE-6FA5-754A-9DFB-7019C4E538AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA72E6-4361-4832-8B22-0E104B3EC1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
+    <workbookView xWindow="3768" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>items</t>
   </si>
@@ -83,9 +83,6 @@
     <t>T1,T2</t>
   </si>
   <si>
-    <t>T1,T2,T3 T4,T5</t>
-  </si>
-  <si>
     <t>T1,T2,T3,T5</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>TID</t>
+  </si>
+  <si>
+    <t>T1,T2,T3,T4,T5</t>
   </si>
 </sst>
 </file>
@@ -462,23 +462,23 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -502,68 +502,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -572,15 +572,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A694FDA5A4A9B4C955A75A119721A31" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3a1add5fd4b5ca4e05fa32894a95c15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74da1de0-f6d7-489d-9dff-0562fa577a13" xmlns:ns3="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9816d51dd986a7759f4443b081d626d" ns2:_="" ns3:_="">
     <xsd:import namespace="74da1de0-f6d7-489d-9dff-0562fa577a13"/>
@@ -757,15 +748,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266BC436-61FE-4DD4-83FC-D46250316CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -774,6 +766,21 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="74da1de0-f6d7-489d-9dff-0562fa577a13"/>
     <ds:schemaRef ds:uri="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Horizontal_Format (1).xlsx
+++ b/Horizontal_Format (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariam Hassanein\OneDrive - Faculty Of Computer and Information Technology (Ain Shams University)\FCIS\Year2023-2024\DataMining\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dm project\Eclat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{E388CFEE-6FA5-754A-9DFB-7019C4E538AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC7832-543D-440D-A7B6-8B20525B2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>items</t>
   </si>
@@ -83,9 +83,6 @@
     <t>T1,T2</t>
   </si>
   <si>
-    <t>T1,T2,T3 T4,T5</t>
-  </si>
-  <si>
     <t>T1,T2,T3,T5</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>TID</t>
+  </si>
+  <si>
+    <t>T1,T2,T3,T4,T5</t>
   </si>
 </sst>
 </file>
@@ -462,23 +462,23 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -502,68 +502,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -572,15 +572,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A694FDA5A4A9B4C955A75A119721A31" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3a1add5fd4b5ca4e05fa32894a95c15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74da1de0-f6d7-489d-9dff-0562fa577a13" xmlns:ns3="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9816d51dd986a7759f4443b081d626d" ns2:_="" ns3:_="">
     <xsd:import namespace="74da1de0-f6d7-489d-9dff-0562fa577a13"/>
@@ -757,15 +748,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266BC436-61FE-4DD4-83FC-D46250316CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -774,6 +766,21 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="74da1de0-f6d7-489d-9dff-0562fa577a13"/>
     <ds:schemaRef ds:uri="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Horizontal_Format (1).xlsx
+++ b/Horizontal_Format (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dm project\Eclat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC7832-543D-440D-A7B6-8B20525B2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA5FDDF-80BF-44E9-A2D1-C290B56C99C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>TID</t>
   </si>
   <si>
-    <t>T1,T2,T3,T4,T5</t>
+    <t>T1,T2,T3 T4,T5</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Horizontal_Format (1).xlsx
+++ b/Horizontal_Format (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dm project\Eclat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3290DE7B-6176-4A17-8EDA-9EFD22F57205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FA87A-D37C-4C02-AD50-7C9BD52E4BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>TID</t>
   </si>
   <si>
-    <t>T1,T2,T3 T4,T5</t>
+    <t>T1,T2,T3,T4,T5</t>
   </si>
 </sst>
 </file>
@@ -465,12 +465,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -510,7 +510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -518,7 +518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -526,7 +526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -534,7 +534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -542,7 +542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -550,7 +550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -558,7 +558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -572,6 +572,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A694FDA5A4A9B4C955A75A119721A31" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3a1add5fd4b5ca4e05fa32894a95c15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74da1de0-f6d7-489d-9dff-0562fa577a13" xmlns:ns3="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9816d51dd986a7759f4443b081d626d" ns2:_="" ns3:_="">
     <xsd:import namespace="74da1de0-f6d7-489d-9dff-0562fa577a13"/>
@@ -748,16 +757,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266BC436-61FE-4DD4-83FC-D46250316CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -775,12 +783,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>